--- a/UnitTests/Data/CREDENTIALS.XLSX
+++ b/UnitTests/Data/CREDENTIALS.XLSX
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37425EFA-A05F-40AC-A021-9899061903B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21788E6F-5A12-4F43-8968-B7DCC7575400}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CREDENTIALS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,16 +22,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
   </si>
 </sst>
 </file>
@@ -352,7 +352,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -363,18 +363,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTests/Data/CREDENTIALS.XLSX
+++ b/UnitTests/Data/CREDENTIALS.XLSX
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21788E6F-5A12-4F43-8968-B7DCC7575400}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C4E1CE-8042-4B1C-8210-DC070D909BE1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CREDENTIALS" sheetId="1" r:id="rId1"/>
+    <sheet name="DATASET" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
